--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795AD83-5179-4DA0-AEF8-F4CA3E880C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1627605-9164-4621-9575-5CBA79A7B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +242,14 @@
   </si>
   <si>
     <t>66설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +727,7 @@
         <v>6.6000000000000003E+97</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>75</v>
@@ -740,7 +744,7 @@
         <v>6.6000000000000002E+101</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>75</v>
@@ -757,7 +761,7 @@
         <v>6.5999999999999999E+105</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
@@ -774,7 +778,7 @@
         <v>6.5999999999999998E+109</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
         <v>75</v>
@@ -791,7 +795,7 @@
         <v>6.6000000000000006E+113</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
@@ -808,7 +812,7 @@
         <v>6.5999999999999996E+117</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>75</v>
@@ -825,7 +829,7 @@
         <v>6.5999999999999996E+121</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>75</v>
@@ -842,7 +846,7 @@
         <v>6.6000000000000001E+125</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>75</v>
@@ -859,7 +863,7 @@
         <v>6.5999999999999998E+129</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>75</v>
@@ -876,13 +880,30 @@
         <v>6.5999999999999998E+133</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
         <v>75</v>
       </c>
       <c r="E11" s="1">
         <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.6000000000000001E+137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -896,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1471,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6">
         <v>136</v>
@@ -1466,7 +1487,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6">
         <v>140</v>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1627605-9164-4621-9575-5CBA79A7B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78166AB-BACE-464C-9A43-1CB885ECCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,14 @@
   </si>
   <si>
     <t>66적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,7 +731,7 @@
         <v>6.6000000000000003E+97</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>75</v>
@@ -744,7 +748,7 @@
         <v>6.6000000000000002E+101</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>75</v>
@@ -761,7 +765,7 @@
         <v>6.5999999999999999E+105</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
@@ -778,7 +782,7 @@
         <v>6.5999999999999998E+109</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>75</v>
@@ -795,7 +799,7 @@
         <v>6.6000000000000006E+113</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
@@ -812,7 +816,7 @@
         <v>6.5999999999999996E+117</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>75</v>
@@ -829,7 +833,7 @@
         <v>6.5999999999999996E+121</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>75</v>
@@ -846,7 +850,7 @@
         <v>6.6000000000000001E+125</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>75</v>
@@ -863,7 +867,7 @@
         <v>6.5999999999999998E+129</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>75</v>
@@ -880,7 +884,7 @@
         <v>6.5999999999999998E+133</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>75</v>
@@ -897,13 +901,30 @@
         <v>6.6000000000000001E+137</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>75</v>
       </c>
       <c r="E12" s="1">
         <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.5999999999999993E+141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1492,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6">
         <v>136</v>
@@ -1487,7 +1508,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6">
         <v>140</v>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78166AB-BACE-464C-9A43-1CB885ECCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D75865-0E6A-489D-8FEA-998CA629D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>66고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -927,6 +935,23 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.6000000000000005E+145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1522,6 +1547,22 @@
         <v>1E+140</v>
       </c>
     </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6">
+        <v>144</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" ref="D39" si="2">POWER(10,C39)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f t="shared" ref="E39" si="3">RIGHT(D39,C39)</f>
+        <v>1E+144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D75865-0E6A-489D-8FEA-998CA629D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346B007-8C48-47DD-B0AD-C25D2DEFDC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>6.6000000000000003E+97</v>
+        <v>3.3000000000000001E+97</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -753,7 +761,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>6.6000000000000002E+101</v>
+        <f>B2*10000</f>
+        <v>3.3000000000000001E+101</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -770,7 +779,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.5999999999999999E+105</v>
+        <f t="shared" ref="B4:B16" si="0">B3*10000</f>
+        <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -787,7 +797,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.5999999999999998E+109</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999999E+109</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -804,7 +815,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6.6000000000000006E+113</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999996E+113</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -821,7 +833,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>6.5999999999999996E+117</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999998E+117</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -838,7 +851,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6.5999999999999996E+121</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999998E+121</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -855,7 +869,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.6000000000000001E+125</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999997E+125</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -872,7 +887,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>6.5999999999999998E+129</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999999E+129</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -889,7 +905,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>6.5999999999999998E+133</v>
+        <f t="shared" si="0"/>
+        <v>3.2999999999999999E+133</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -906,7 +923,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>6.6000000000000001E+137</v>
+        <f t="shared" si="0"/>
+        <v>3.3E+137</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -923,7 +941,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>6.5999999999999993E+141</v>
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003E+141</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -940,7 +959,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>6.6000000000000005E+145</v>
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003E+145</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -950,6 +970,24 @@
       </c>
       <c r="E14" s="1">
         <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000004E+149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:E39"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,6 +1601,22 @@
         <v>1E+144</v>
       </c>
     </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6">
+        <v>148</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" ref="D40" si="4">POWER(10,C40)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f t="shared" ref="E40" si="5">RIGHT(D40,C40)</f>
+        <v>1E+148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346B007-8C48-47DD-B0AD-C25D2DEFDC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EBE718-FBC3-49EE-996C-1DD22665C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,6 +998,24 @@
         <v>1.9E-2</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003E+153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1617,6 +1643,22 @@
         <v>1E+148</v>
       </c>
     </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="6">
+        <v>152</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" ref="D41" si="6">POWER(10,C41)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f t="shared" ref="E41" si="7">RIGHT(D41,C41)</f>
+        <v>1E+152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EBE718-FBC3-49EE-996C-1DD22665C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27324456-74EF-434D-809A-C09A40295508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,74 +201,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66언</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66섬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +222,52 @@
   </si>
   <si>
     <t>33월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33가</t>
+  </si>
+  <si>
+    <t>33언</t>
+  </si>
+  <si>
+    <t>33승</t>
+  </si>
+  <si>
+    <t>33마</t>
+  </si>
+  <si>
+    <t>33살</t>
+  </si>
+  <si>
+    <t>33섬</t>
+  </si>
+  <si>
+    <t>33찰</t>
+  </si>
+  <si>
+    <t>33교</t>
+  </si>
+  <si>
+    <t>33위</t>
+  </si>
+  <si>
+    <t>33설</t>
+  </si>
+  <si>
+    <t>33적</t>
+  </si>
+  <si>
+    <t>33고</t>
+  </si>
+  <si>
+    <t>33화</t>
+  </si>
+  <si>
+    <t>33명</t>
+  </si>
+  <si>
+    <t>33후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,7 +745,7 @@
         <v>3.3000000000000001E+97</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>75</v>
@@ -773,7 +763,7 @@
         <v>3.3000000000000001E+101</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
         <v>75</v>
@@ -787,11 +777,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B16" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B17" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
         <v>75</v>
@@ -809,7 +799,7 @@
         <v>3.2999999999999999E+109</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>75</v>
@@ -827,7 +817,7 @@
         <v>3.2999999999999996E+113</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
@@ -845,7 +835,7 @@
         <v>3.2999999999999998E+117</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>75</v>
@@ -863,7 +853,7 @@
         <v>3.2999999999999998E+121</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1">
         <v>75</v>
@@ -881,7 +871,7 @@
         <v>3.2999999999999997E+125</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>75</v>
@@ -899,7 +889,7 @@
         <v>3.2999999999999999E+129</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>75</v>
@@ -917,7 +907,7 @@
         <v>3.2999999999999999E+133</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>75</v>
@@ -935,7 +925,7 @@
         <v>3.3E+137</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1">
         <v>75</v>
@@ -953,7 +943,7 @@
         <v>3.3000000000000003E+141</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1">
         <v>75</v>
@@ -971,7 +961,7 @@
         <v>3.3000000000000003E+145</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1">
         <v>75</v>
@@ -982,14 +972,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000004E+149</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
         <v>75</v>
@@ -1000,20 +990,38 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000003E+153</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>75</v>
       </c>
       <c r="E16" s="1">
         <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E+157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1589,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6">
         <v>136</v>
@@ -1597,7 +1605,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6">
         <v>140</v>
@@ -1613,7 +1621,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6">
         <v>144</v>
@@ -1629,7 +1637,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6">
         <v>148</v>
@@ -1645,7 +1653,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6">
         <v>152</v>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27324456-74EF-434D-809A-C09A40295508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A90CBC-5230-4D98-B2BF-34F85CC228FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,26 @@
   </si>
   <si>
     <t>33후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승 폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,6 +771,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="1">
+        <f>VLOOKUP(A2,abilvalue!J:O,6,FALSE)</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -769,6 +790,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="1">
+        <f>VLOOKUP(A3,abilvalue!J:O,6,FALSE)</f>
         <v>1.5E-3</v>
       </c>
     </row>
@@ -777,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B17" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B18" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -787,7 +809,8 @@
         <v>75</v>
       </c>
       <c r="E4" s="1">
-        <v>2E-3</v>
+        <f>VLOOKUP(A4,abilvalue!J:O,6,FALSE)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -805,7 +828,8 @@
         <v>75</v>
       </c>
       <c r="E5" s="1">
-        <v>2.5000000000000001E-3</v>
+        <f>VLOOKUP(A5,abilvalue!J:O,6,FALSE)</f>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -823,7 +847,8 @@
         <v>75</v>
       </c>
       <c r="E6" s="1">
-        <v>3.0000000000000001E-3</v>
+        <f>VLOOKUP(A6,abilvalue!J:O,6,FALSE)</f>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,7 +866,8 @@
         <v>75</v>
       </c>
       <c r="E7" s="1">
-        <v>3.5000000000000001E-3</v>
+        <f>VLOOKUP(A7,abilvalue!J:O,6,FALSE)</f>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -859,7 +885,8 @@
         <v>75</v>
       </c>
       <c r="E8" s="1">
-        <v>5.0000000000000001E-3</v>
+        <f>VLOOKUP(A8,abilvalue!J:O,6,FALSE)</f>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -877,7 +904,8 @@
         <v>75</v>
       </c>
       <c r="E9" s="1">
-        <v>7.0000000000000001E-3</v>
+        <f>VLOOKUP(A9,abilvalue!J:O,6,FALSE)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,7 +923,8 @@
         <v>75</v>
       </c>
       <c r="E10" s="1">
-        <v>8.9999999999999993E-3</v>
+        <f>VLOOKUP(A10,abilvalue!J:O,6,FALSE)</f>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,7 +942,8 @@
         <v>75</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0999999999999999E-2</v>
+        <f>VLOOKUP(A11,abilvalue!J:O,6,FALSE)</f>
+        <v>2.35E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -931,7 +961,8 @@
         <v>75</v>
       </c>
       <c r="E12" s="1">
-        <v>1.2999999999999999E-2</v>
+        <f>VLOOKUP(A12,abilvalue!J:O,6,FALSE)</f>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,7 +980,8 @@
         <v>75</v>
       </c>
       <c r="E13" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f>VLOOKUP(A13,abilvalue!J:O,6,FALSE)</f>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -967,7 +999,8 @@
         <v>75</v>
       </c>
       <c r="E14" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f>VLOOKUP(A14,abilvalue!J:O,6,FALSE)</f>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,7 +1018,8 @@
         <v>75</v>
       </c>
       <c r="E15" s="1">
-        <v>1.9E-2</v>
+        <f>VLOOKUP(A15,abilvalue!J:O,6,FALSE)</f>
+        <v>4.6500000000000014E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1037,8 @@
         <v>75</v>
       </c>
       <c r="E16" s="1">
-        <v>2.1000000000000001E-2</v>
+        <f>VLOOKUP(A16,abilvalue!J:O,6,FALSE)</f>
+        <v>5.350000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,7 +1056,27 @@
         <v>75</v>
       </c>
       <c r="E17" s="1">
-        <v>2.3E-2</v>
+        <f>VLOOKUP(A17,abilvalue!J:O,6,FALSE)</f>
+        <v>6.1000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3E+161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1">
+        <f>VLOOKUP(A18,abilvalue!J:O,6,FALSE)</f>
+        <v>6.9000000000000034E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1033,15 +1088,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1107,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1116,26 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1150,24 @@
         <f>RIGHT(D4,C4)</f>
         <v>0000</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.3000000000000001E+97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1">
+        <v>75</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1090,8 +1182,28 @@
         <f t="shared" ref="E5:E38" si="1">RIGHT(D5,C5)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <f>K4*10000</f>
+        <v>3.3000000000000001E+101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1">
+        <v>75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O5" s="1">
+        <f>O4+N5</f>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1218,29 @@
         <f t="shared" si="1"/>
         <v>000000000000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K32" si="2">K5*10000</f>
+        <v>3.3E+105</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1">
+        <f>N5+0.0005</f>
+        <v>1E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O20" si="3">O5+N6</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1122,8 +1255,29 @@
         <f t="shared" si="1"/>
         <v>0000000000000000</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1">
+        <v>75</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N32" si="4">N6+0.0005</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1138,8 +1292,29 @@
         <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999996E+113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1">
+        <v>75</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1154,8 +1329,29 @@
         <f t="shared" si="1"/>
         <v>1E+24</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1">
+        <v>75</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1170,8 +1366,29 @@
         <f t="shared" si="1"/>
         <v>1E+28</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="1">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1403,29 @@
         <f t="shared" si="1"/>
         <v>1E+32</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999997E+125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="1">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1202,8 +1440,29 @@
         <f t="shared" si="1"/>
         <v>1E+36</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1">
+        <v>75</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1218,8 +1477,29 @@
         <f t="shared" si="1"/>
         <v>1E+40</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="1">
+        <v>75</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1234,8 +1514,29 @@
         <f t="shared" si="1"/>
         <v>1E+44</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="4"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1551,29 @@
         <f t="shared" si="1"/>
         <v>1E+48</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E+141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="1">
+        <v>75</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1266,8 +1588,29 @@
         <f t="shared" si="1"/>
         <v>1E+52</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E+145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="1">
+        <v>75</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000019E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1282,8 +1625,29 @@
         <f t="shared" si="1"/>
         <v>1E+56</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000004E+149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="1">
+        <v>75</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000023E-3</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6500000000000014E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1298,8 +1662,29 @@
         <f t="shared" si="1"/>
         <v>1E+60</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E+153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="1">
+        <v>75</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000027E-3</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>5.350000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1314,8 +1699,29 @@
         <f t="shared" si="1"/>
         <v>1E+64</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="1">
+        <v>75</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5000000000000032E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1330,8 +1736,29 @@
         <f t="shared" si="1"/>
         <v>1E+68</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="1">
+        <v>75</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000036E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1346,8 +1773,26 @@
         <f t="shared" si="1"/>
         <v>1E+72</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+165</v>
+      </c>
+      <c r="M21" s="1">
+        <v>75</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5000000000000041E-3</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O23" si="5">O20+N21</f>
+        <v>7.7500000000000041E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1362,8 +1807,26 @@
         <f t="shared" si="1"/>
         <v>1E+76</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999997E+169</v>
+      </c>
+      <c r="M22" s="1">
+        <v>75</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0000000000000045E-3</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6500000000000049E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1378,8 +1841,26 @@
         <f t="shared" si="1"/>
         <v>1E+80</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+173</v>
+      </c>
+      <c r="M23" s="1">
+        <v>75</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="4"/>
+        <v>9.500000000000005E-3</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>9.6000000000000058E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1394,8 +1875,26 @@
         <f t="shared" si="1"/>
         <v>1E+84</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000001E+177</v>
+      </c>
+      <c r="M24" s="1">
+        <v>75</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000005E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O32" si="6">O23+N24</f>
+        <v>0.10600000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1410,8 +1909,26 @@
         <f t="shared" si="1"/>
         <v>1E+88</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+181</v>
+      </c>
+      <c r="M25" s="1">
+        <v>75</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0500000000000006E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11650000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1426,8 +1943,26 @@
         <f t="shared" si="1"/>
         <v>1E+92</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000001E+185</v>
+      </c>
+      <c r="M26" s="1">
+        <v>75</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000006E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.12750000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -1442,8 +1977,26 @@
         <f t="shared" si="1"/>
         <v>1E+96</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+189</v>
+      </c>
+      <c r="M27" s="1">
+        <v>75</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1500000000000007E-2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.1390000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1458,8 +2011,26 @@
         <f t="shared" si="1"/>
         <v>1E+100</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000004E+193</v>
+      </c>
+      <c r="M28" s="1">
+        <v>75</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000007E-2</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.15100000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -1474,8 +2045,26 @@
         <f t="shared" si="1"/>
         <v>1E+104</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E+197</v>
+      </c>
+      <c r="M29" s="1">
+        <v>75</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000008E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.16350000000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
@@ -1490,8 +2079,26 @@
         <f t="shared" si="1"/>
         <v>1E+108</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000005E+201</v>
+      </c>
+      <c r="M30" s="1">
+        <v>75</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3000000000000008E-2</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.17650000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1506,8 +2113,26 @@
         <f t="shared" si="1"/>
         <v>1E+112</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000006E+205</v>
+      </c>
+      <c r="M31" s="1">
+        <v>75</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3500000000000009E-2</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>0.19000000000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
@@ -1521,6 +2146,24 @@
       <c r="E32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1E+116</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000005E+209</v>
+      </c>
+      <c r="M32" s="1">
+        <v>75</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000009E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.20400000000000015</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -1627,11 +2270,11 @@
         <v>144</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="2">POWER(10,C39)</f>
+        <f t="shared" ref="D39" si="7">POWER(10,C39)</f>
         <v>1E+144</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f t="shared" ref="E39" si="3">RIGHT(D39,C39)</f>
+        <f t="shared" ref="E39" si="8">RIGHT(D39,C39)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -1643,11 +2286,11 @@
         <v>148</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" ref="D40" si="4">POWER(10,C40)</f>
+        <f t="shared" ref="D40" si="9">POWER(10,C40)</f>
         <v>1E+148</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f t="shared" ref="E40" si="5">RIGHT(D40,C40)</f>
+        <f t="shared" ref="E40" si="10">RIGHT(D40,C40)</f>
         <v>1E+148</v>
       </c>
     </row>
@@ -1659,12 +2302,60 @@
         <v>152</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" ref="D41" si="6">POWER(10,C41)</f>
+        <f t="shared" ref="D41:D42" si="11">POWER(10,C41)</f>
         <v>1E+152</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f t="shared" ref="E41" si="7">RIGHT(D41,C41)</f>
+        <f t="shared" ref="E41:E42" si="12">RIGHT(D41,C41)</f>
         <v>1E+152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="6">
+        <v>156</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="E42" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="6">
+        <v>160</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" ref="D43" si="13">POWER(10,C43)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f t="shared" ref="E43" si="14">RIGHT(D43,C43)</f>
+        <v>1E+160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="6">
+        <v>164</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" ref="D44" si="15">POWER(10,C44)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f t="shared" ref="E44" si="16">RIGHT(D44,C44)</f>
+        <v>1E+164</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A90CBC-5230-4D98-B2BF-34F85CC228FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B24DD-039D-49FE-9075-94882522FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>상승 폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B18" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B19" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1077,6 +1081,25 @@
       <c r="E18" s="1">
         <f>VLOOKUP(A18,abilvalue!J:O,6,FALSE)</f>
         <v>6.9000000000000034E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999999E+165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1">
+        <f>VLOOKUP(A19,abilvalue!J:O,6,FALSE)</f>
+        <v>7.7500000000000041E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B24DD-039D-49FE-9075-94882522FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F57072-C4B2-4DEF-977E-44DFCE938455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,15 +283,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상승 폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>33절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,11 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B19" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B20" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1092,7 +1104,7 @@
         <v>3.2999999999999999E+165</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>75</v>
@@ -1100,6 +1112,25 @@
       <c r="E19" s="1">
         <f>VLOOKUP(A19,abilvalue!J:O,6,FALSE)</f>
         <v>7.7500000000000041E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999997E+169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1">
+        <f>VLOOKUP(A20,abilvalue!J:O,6,FALSE)</f>
+        <v>8.6500000000000049E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:O44"/>
+  <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
@@ -1803,6 +1834,9 @@
         <f t="shared" si="2"/>
         <v>3.2999999999999999E+165</v>
       </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
       <c r="M21" s="1">
         <v>75</v>
       </c>
@@ -1837,6 +1871,9 @@
         <f t="shared" si="2"/>
         <v>3.2999999999999997E+169</v>
       </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
       <c r="M22" s="1">
         <v>75</v>
       </c>
@@ -2367,18 +2404,34 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C44" s="6">
         <v>164</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" ref="D44" si="15">POWER(10,C44)</f>
+        <f t="shared" ref="D44:D45" si="15">POWER(10,C44)</f>
         <v>1E+164</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f t="shared" ref="E44" si="16">RIGHT(D44,C44)</f>
+        <f t="shared" ref="E44:E45" si="16">RIGHT(D44,C44)</f>
         <v>1E+164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="6">
+        <v>168</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+168</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F57072-C4B2-4DEF-977E-44DFCE938455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028169A-406A-4C07-8F24-9C0FB8EC2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +300,14 @@
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B20" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B22" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1119,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f>B19*10000</f>
         <v>3.2999999999999997E+169</v>
       </c>
       <c r="C20" t="s">
@@ -1131,6 +1135,44 @@
       <c r="E20" s="1">
         <f>VLOOKUP(A20,abilvalue!J:O,6,FALSE)</f>
         <v>8.6500000000000049E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B20*10000</f>
+        <v>3.3E+173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1">
+        <f>VLOOKUP(A21,abilvalue!J:O,6,FALSE)</f>
+        <v>9.6000000000000058E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000001E+177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1">
+        <f>VLOOKUP(A22,abilvalue!J:O,6,FALSE)</f>
+        <v>0.10600000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1144,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1914,7 @@
         <v>3.2999999999999997E+169</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="1">
         <v>75</v>
@@ -2404,7 +2446,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="6">
         <v>164</v>
@@ -2420,7 +2462,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6">
         <v>168</v>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028169A-406A-4C07-8F24-9C0FB8EC2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D40DDD-AE97-4099-99AB-02004C618F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>33공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B22" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B24" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1173,6 +1181,44 @@
       <c r="E22" s="1">
         <f>VLOOKUP(A22,abilvalue!J:O,6,FALSE)</f>
         <v>0.10600000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B22*10000</f>
+        <v>3.3000000000000002E+181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1">
+        <f>VLOOKUP(A23,abilvalue!J:O,6,FALSE)</f>
+        <v>0.11650000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000001E+185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1">
+        <f>VLOOKUP(A24,abilvalue!J:O,6,FALSE)</f>
+        <v>0.12750000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D40DDD-AE97-4099-99AB-02004C618F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552E427-7FF5-4D24-BA01-A5845DE93923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,7 +315,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33연</t>
+    <t>33피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B24" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B25" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1219,6 +1223,25 @@
       <c r="E24" s="1">
         <f>VLOOKUP(A24,abilvalue!J:O,6,FALSE)</f>
         <v>0.12750000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E+189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1">
+        <f>VLOOKUP(A25,abilvalue!J:O,6,FALSE)</f>
+        <v>0.1390000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552E427-7FF5-4D24-BA01-A5845DE93923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4F6F0-B237-4B2B-9C7B-CBC4EBC6B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>33동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1242,6 +1246,25 @@
       <c r="E25" s="1">
         <f>VLOOKUP(A25,abilvalue!J:O,6,FALSE)</f>
         <v>0.1390000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25*10000</f>
+        <v>3.3000000000000004E+193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1">
+        <f>VLOOKUP(A26,abilvalue!J:O,6,FALSE)</f>
+        <v>0.15100000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4F6F0-B237-4B2B-9C7B-CBC4EBC6B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C560D2A-8925-4176-A17F-696626DB2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>33멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -835,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B25" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B27" si="0">B3*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="C4" t="s">
@@ -1265,6 +1273,44 @@
       <c r="E26" s="1">
         <f>VLOOKUP(A26,abilvalue!J:O,6,FALSE)</f>
         <v>0.15100000000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003E+197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <f>VLOOKUP(A27,abilvalue!J:O,6,FALSE)</f>
+        <v>0.16350000000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B27*10000</f>
+        <v>3.3000000000000005E+201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1">
+        <f>VLOOKUP(A28,abilvalue!J:O,6,FALSE)</f>
+        <v>0.17650000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C560D2A-8925-4176-A17F-696626DB2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CACAF-EC75-4FB5-AF6C-13DF93325175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>33증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1311,6 +1315,25 @@
       <c r="E28" s="1">
         <f>VLOOKUP(A28,abilvalue!J:O,6,FALSE)</f>
         <v>0.17650000000000013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B28*10000</f>
+        <v>3.3000000000000006E+205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1">
+        <f>VLOOKUP(A29,abilvalue!J:O,6,FALSE)</f>
+        <v>0.19000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CACAF-EC75-4FB5-AF6C-13DF93325175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE80B-901D-40B7-B9E1-8C6F05AB94D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>33쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,6 +1340,25 @@
         <v>0.19000000000000014</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30" si="1">B29*10000</f>
+        <v>3.3000000000000005E+209</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1">
+        <f>VLOOKUP(A30,abilvalue!J:O,6,FALSE)</f>
+        <v>0.20400000000000015</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,7 +1371,7 @@
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE80B-901D-40B7-B9E1-8C6F05AB94D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFA043-BC7D-451F-B6D3-C40F063B6F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,7 +339,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34우</t>
+    <t>33우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -627,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -769,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1349,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" ref="B30" si="1">B29*10000</f>
+        <f t="shared" ref="B30:B31" si="1">B29*10000</f>
         <v>3.3000000000000005E+209</v>
       </c>
       <c r="C30" t="s">
@@ -1357,6 +1361,25 @@
       <c r="E30" s="1">
         <f>VLOOKUP(A30,abilvalue!J:O,6,FALSE)</f>
         <v>0.20400000000000015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000007E+213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1">
+        <f>VLOOKUP(A31,abilvalue!J:O,6,FALSE)</f>
+        <v>0.21850000000000017</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K32" si="2">K5*10000</f>
+        <f t="shared" ref="K6:K46" si="2">K5*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="L6" t="s">
@@ -1549,7 +1572,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N32" si="4">N6+0.0005</f>
+        <f t="shared" ref="N7:N46" si="4">N6+0.0005</f>
         <v>1.5E-3</v>
       </c>
       <c r="O7" s="1">
@@ -2176,7 +2199,7 @@
         <v>1.0000000000000005E-2</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" ref="O24:O32" si="6">O23+N24</f>
+        <f t="shared" ref="O24:O35" si="6">O23+N24</f>
         <v>0.10600000000000007</v>
       </c>
     </row>
@@ -2452,7 +2475,7 @@
         <v>0.20400000000000015</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
@@ -2467,8 +2490,26 @@
         <f t="shared" si="1"/>
         <v>1E+120</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>29</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000007E+213</v>
+      </c>
+      <c r="M33" s="1">
+        <v>75</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4500000000000009E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>0.21850000000000017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
@@ -2483,8 +2524,26 @@
         <f t="shared" si="1"/>
         <v>1E+124</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000005E+217</v>
+      </c>
+      <c r="M34" s="1">
+        <v>75</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="4"/>
+        <v>1.500000000000001E-2</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="6"/>
+        <v>0.23350000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
@@ -2499,8 +2558,26 @@
         <f t="shared" si="1"/>
         <v>1E+128</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>31</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E+221</v>
+      </c>
+      <c r="M35" s="1">
+        <v>75</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="4"/>
+        <v>1.550000000000001E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="6"/>
+        <v>0.24900000000000019</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
@@ -2515,8 +2592,26 @@
         <f t="shared" si="1"/>
         <v>1E+132</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+225</v>
+      </c>
+      <c r="M36" s="1">
+        <v>75</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000011E-2</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" ref="O36:O46" si="7">O35+N36</f>
+        <v>0.26500000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
@@ -2531,8 +2626,26 @@
         <f t="shared" si="1"/>
         <v>1E+136</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+229</v>
+      </c>
+      <c r="M37" s="1">
+        <v>75</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6500000000000011E-2</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="7"/>
+        <v>0.28150000000000019</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
@@ -2547,8 +2660,26 @@
         <f t="shared" si="1"/>
         <v>1E+140</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>34</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+233</v>
+      </c>
+      <c r="M38" s="1">
+        <v>75</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000012E-2</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="7"/>
+        <v>0.29850000000000021</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
@@ -2556,15 +2687,33 @@
         <v>144</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="7">POWER(10,C39)</f>
+        <f t="shared" ref="D39" si="8">POWER(10,C39)</f>
         <v>1E+144</v>
       </c>
       <c r="E39" s="7" t="str">
-        <f t="shared" ref="E39" si="8">RIGHT(D39,C39)</f>
+        <f t="shared" ref="E39" si="9">RIGHT(D39,C39)</f>
         <v>1E+144</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>35</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000001E+237</v>
+      </c>
+      <c r="M39" s="1">
+        <v>75</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000012E-2</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31600000000000023</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
@@ -2572,15 +2721,33 @@
         <v>148</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" ref="D40" si="9">POWER(10,C40)</f>
+        <f t="shared" ref="D40" si="10">POWER(10,C40)</f>
         <v>1E+148</v>
       </c>
       <c r="E40" s="7" t="str">
-        <f t="shared" ref="E40" si="10">RIGHT(D40,C40)</f>
+        <f t="shared" ref="E40" si="11">RIGHT(D40,C40)</f>
         <v>1E+148</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>36</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+241</v>
+      </c>
+      <c r="M40" s="1">
+        <v>75</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000013E-2</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33400000000000024</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>45</v>
       </c>
@@ -2588,15 +2755,33 @@
         <v>152</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" ref="D41:D42" si="11">POWER(10,C41)</f>
+        <f t="shared" ref="D41:D42" si="12">POWER(10,C41)</f>
         <v>1E+152</v>
       </c>
       <c r="E41" s="7" t="str">
-        <f t="shared" ref="E41:E42" si="12">RIGHT(D41,C41)</f>
+        <f t="shared" ref="E41:E42" si="13">RIGHT(D41,C41)</f>
         <v>1E+152</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>37</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000001E+245</v>
+      </c>
+      <c r="M41" s="1">
+        <v>75</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8500000000000013E-2</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="7"/>
+        <v>0.35250000000000026</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>63</v>
       </c>
@@ -2604,15 +2789,33 @@
         <v>156</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+156</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>38</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000001E+249</v>
+      </c>
+      <c r="M42" s="1">
+        <v>75</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000013E-2</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="7"/>
+        <v>0.37150000000000027</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>64</v>
       </c>
@@ -2620,15 +2823,33 @@
         <v>160</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" ref="D43" si="13">POWER(10,C43)</f>
+        <f t="shared" ref="D43" si="14">POWER(10,C43)</f>
         <v>1E+160</v>
       </c>
       <c r="E43" s="7" t="str">
-        <f t="shared" ref="E43" si="14">RIGHT(D43,C43)</f>
+        <f t="shared" ref="E43" si="15">RIGHT(D43,C43)</f>
         <v>1E+160</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>39</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+253</v>
+      </c>
+      <c r="M43" s="1">
+        <v>75</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9500000000000014E-2</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="7"/>
+        <v>0.39100000000000029</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
@@ -2636,15 +2857,33 @@
         <v>164</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" ref="D44:D45" si="15">POWER(10,C44)</f>
+        <f t="shared" ref="D44:D45" si="16">POWER(10,C44)</f>
         <v>1E+164</v>
       </c>
       <c r="E44" s="7" t="str">
-        <f t="shared" ref="E44:E45" si="16">RIGHT(D44,C44)</f>
+        <f t="shared" ref="E44:E45" si="17">RIGHT(D44,C44)</f>
         <v>1E+164</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>40</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+257</v>
+      </c>
+      <c r="M44" s="1">
+        <v>75</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000014E-2</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="7"/>
+        <v>0.41100000000000031</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>69</v>
       </c>
@@ -2652,12 +2891,50 @@
         <v>168</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="E45" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E+168</v>
+      </c>
+      <c r="J45">
+        <v>41</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+261</v>
+      </c>
+      <c r="M45" s="1">
+        <v>75</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0500000000000015E-2</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="7"/>
+        <v>0.43150000000000033</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>42</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+265</v>
+      </c>
+      <c r="M46" s="1">
+        <v>75</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1000000000000015E-2</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45250000000000035</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFA043-BC7D-451F-B6D3-C40F063B6F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95583150-00F3-4AC2-8932-7F7B6D7570BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HyunSangTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,7 +343,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34팽</t>
+    <t>33팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1382,6 +1390,44 @@
         <v>0.21850000000000017</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B31*10000</f>
+        <v>3.3000000000000005E+217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1">
+        <f>VLOOKUP(A32,abilvalue!J:O,6,FALSE)</f>
+        <v>0.23350000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B32*10000</f>
+        <v>3.3000000000000003E+221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1">
+        <f>VLOOKUP(A33,abilvalue!J:O,6,FALSE)</f>
+        <v>0.24900000000000019</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95583150-00F3-4AC2-8932-7F7B6D7570BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D4A1-8D57-4DCE-A9CD-FBE79FFCB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>33관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1426,6 +1430,25 @@
       <c r="E33" s="1">
         <f>VLOOKUP(A33,abilvalue!J:O,6,FALSE)</f>
         <v>0.24900000000000019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34" si="2">B33*10000</f>
+        <v>3.3E+225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1">
+        <f>VLOOKUP(A34,abilvalue!J:O,6,FALSE)</f>
+        <v>0.26500000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D4A1-8D57-4DCE-A9CD-FBE79FFCB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDECECD-14B3-4BCC-BF0B-6D4CB40CE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,10 @@
   </si>
   <si>
     <t>33혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1449,6 +1453,25 @@
       <c r="E34" s="1">
         <f>VLOOKUP(A34,abilvalue!J:O,6,FALSE)</f>
         <v>0.26500000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B34*10000</f>
+        <v>3.2999999999999999E+229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1">
+        <f>VLOOKUP(A35,abilvalue!J:O,6,FALSE)</f>
+        <v>0.28150000000000019</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDECECD-14B3-4BCC-BF0B-6D4CB40CE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E23C3F-6ACC-41BB-AF99-979DD0E0FB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>33연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1472,6 +1476,25 @@
       <c r="E35" s="1">
         <f>VLOOKUP(A35,abilvalue!J:O,6,FALSE)</f>
         <v>0.28150000000000019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B35*10000</f>
+        <v>3.2999999999999998E+233</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1">
+        <f>VLOOKUP(A36,abilvalue!J:O,6,FALSE)</f>
+        <v>0.29850000000000021</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E23C3F-6ACC-41BB-AF99-979DD0E0FB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C4B6E0-ADE0-4FDA-852F-80A357D91E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>33난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1495,6 +1499,25 @@
       <c r="E36" s="1">
         <f>VLOOKUP(A36,abilvalue!J:O,6,FALSE)</f>
         <v>0.29850000000000021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37" si="3">B36*10000</f>
+        <v>3.3000000000000001E+237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1">
+        <f>VLOOKUP(A37,abilvalue!J:O,6,FALSE)</f>
+        <v>0.31600000000000023</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C4B6E0-ADE0-4FDA-852F-80A357D91E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19D94DA-4940-43E2-B078-94FD0EC5551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>33군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1518,6 +1522,25 @@
       <c r="E37" s="1">
         <f>VLOOKUP(A37,abilvalue!J:O,6,FALSE)</f>
         <v>0.31600000000000023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <f>B37*10000</f>
+        <v>3.3E+241</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="1">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1">
+        <f>VLOOKUP(A38,abilvalue!J:O,6,FALSE)</f>
+        <v>0.33400000000000024</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19D94DA-4940-43E2-B078-94FD0EC5551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F926B5CC-D268-4929-A9F1-1DA81ADE93A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>33결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,11 +813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1541,6 +1545,25 @@
       <c r="E38" s="1">
         <f>VLOOKUP(A38,abilvalue!J:O,6,FALSE)</f>
         <v>0.33400000000000024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39" si="4">B38*10000</f>
+        <v>3.3000000000000001E+245</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1">
+        <v>75</v>
+      </c>
+      <c r="E39" s="1">
+        <f>VLOOKUP(A39,abilvalue!J:O,6,FALSE)</f>
+        <v>0.35250000000000026</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F926B5CC-D268-4929-A9F1-1DA81ADE93A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE884095-C00A-4B3A-83E0-465134FA8A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>33맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1556,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ref="B39" si="4">B38*10000</f>
+        <f t="shared" ref="B39:B40" si="4">B38*10000</f>
         <v>3.3000000000000001E+245</v>
       </c>
       <c r="C39" t="s">
@@ -1564,6 +1568,25 @@
       <c r="E39" s="1">
         <f>VLOOKUP(A39,abilvalue!J:O,6,FALSE)</f>
         <v>0.35250000000000026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3000000000000001E+249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1">
+        <f>VLOOKUP(A40,abilvalue!J:O,6,FALSE)</f>
+        <v>0.37150000000000027</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE884095-C00A-4B3A-83E0-465134FA8A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916644AD-A1D5-4E94-A8D8-6C585DBF11CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,10 @@
   </si>
   <si>
     <t>33토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,11 +821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1591,25 @@
       <c r="E40" s="1">
         <f>VLOOKUP(A40,abilvalue!J:O,6,FALSE)</f>
         <v>0.37150000000000027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <f>B40*10000</f>
+        <v>3.2999999999999999E+253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1">
+        <v>75</v>
+      </c>
+      <c r="E41" s="1">
+        <f>VLOOKUP(A41,abilvalue!J:O,6,FALSE)</f>
+        <v>0.39100000000000029</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HyunSangTowerTable.xlsx
+++ b/Assets/06.Table/HyunSangTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916644AD-A1D5-4E94-A8D8-6C585DBF11CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E146F81-5526-43E4-A34F-0D5DE676FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>33산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1612,6 +1624,63 @@
         <v>0.39100000000000029</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <f>B41*10000</f>
+        <v>3.3000000000000002E+257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="1">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1">
+        <f>VLOOKUP(A42,abilvalue!J:O,6,FALSE)</f>
+        <v>0.41100000000000031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43" si="5">B42*10000</f>
+        <v>3.3E+261</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <f>VLOOKUP(A43,abilvalue!J:O,6,FALSE)</f>
+        <v>0.43150000000000033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <f>B43*10000</f>
+        <v>3.2999999999999998E+265</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1">
+        <f>VLOOKUP(A44,abilvalue!J:O,6,FALSE)</f>
+        <v>0.45250000000000035</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="B2:O46"/>
+  <dimension ref="B2:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K46" si="2">K5*10000</f>
+        <f t="shared" ref="K6:K56" si="2">K5*10000</f>
         <v>3.3E+105</v>
       </c>
       <c r="L6" t="s">
@@ -1802,7 +1871,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N46" si="4">N6+0.0005</f>
+        <f t="shared" ref="N7:N56" si="4">N6+0.0005</f>
         <v>1.5E-3</v>
       </c>
       <c r="O7" s="1">
@@ -3166,6 +3235,230 @@
         <f t="shared" si="7"/>
         <v>0.45250000000000035</v>
       </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>43</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+269</v>
+      </c>
+      <c r="M47" s="1">
+        <v>75</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1500000000000016E-2</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" ref="O47:O56" si="18">O46+N47</f>
+        <v>0.47400000000000037</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>44</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+273</v>
+      </c>
+      <c r="M48" s="1">
+        <v>75</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000016E-2</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="18"/>
+        <v>0.49600000000000039</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>45</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+277</v>
+      </c>
+      <c r="M49" s="1">
+        <v>75</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000017E-2</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="18"/>
+        <v>0.51850000000000041</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>46</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999998E+281</v>
+      </c>
+      <c r="M50" s="1">
+        <v>75</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3000000000000017E-2</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="18"/>
+        <v>0.54150000000000043</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>47</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999997E+285</v>
+      </c>
+      <c r="M51" s="1">
+        <v>75</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3500000000000017E-2</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="18"/>
+        <v>0.56500000000000039</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>48</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999999E+289</v>
+      </c>
+      <c r="M52" s="1">
+        <v>75</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000018E-2</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="18"/>
+        <v>0.58900000000000041</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>49</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+293</v>
+      </c>
+      <c r="M53" s="1">
+        <v>75</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4500000000000018E-2</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="18"/>
+        <v>0.61350000000000038</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>50</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3E+297</v>
+      </c>
+      <c r="M54" s="1">
+        <v>75</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000019E-2</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="18"/>
+        <v>0.6385000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>51</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E+301</v>
+      </c>
+      <c r="M55" s="1">
+        <v>75</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5500000000000019E-2</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="18"/>
+        <v>0.66400000000000037</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>52</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000004E+305</v>
+      </c>
+      <c r="M56" s="1">
+        <v>75</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="4"/>
+        <v>2.600000000000002E-2</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="18"/>
+        <v>0.69000000000000039</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="K57" s="2"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="K58" s="2"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="K59" s="2"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="K60" s="2"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
